--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999999851</v>
+        <v>0.9999999999999079</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999851</v>
+        <v>0.9999999999999079</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5.412604160737924E-08</v>
+        <v>1.989690385591352E-11</v>
       </c>
       <c r="E3">
-        <v>5.412604160737924E-08</v>
+        <v>1.989690385591352E-11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.466346367631321E-05</v>
+        <v>1.257762884666898E-05</v>
       </c>
       <c r="E4">
-        <v>2.466346367631321E-05</v>
+        <v>1.257762884666898E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.050705461573009E-25</v>
+        <v>3.482945881258352E-23</v>
       </c>
       <c r="E5">
-        <v>1.050705461573009E-25</v>
+        <v>3.482945881258352E-23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>9.723964370405818E-12</v>
+        <v>7.301362456744138E-21</v>
       </c>
       <c r="E6">
-        <v>9.723964370405818E-12</v>
+        <v>7.301362456744138E-21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999478753</v>
+        <v>0.9999958298017891</v>
       </c>
       <c r="E7">
-        <v>5.212474896154617E-11</v>
+        <v>4.170198210862175E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999917146</v>
+        <v>0.9999998696958784</v>
       </c>
       <c r="E8">
-        <v>8.285372388172618E-12</v>
+        <v>1.303041216038636E-07</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999999971</v>
+        <v>0.9999999999985529</v>
       </c>
       <c r="E9">
-        <v>2.886579864025407E-15</v>
+        <v>1.447064690296429E-12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9965645618007258</v>
+        <v>0.9994718449871581</v>
       </c>
       <c r="E10">
-        <v>0.003435438199274166</v>
+        <v>0.0005281550128418688</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999999994866</v>
+        <v>0.9999999999291127</v>
       </c>
       <c r="E11">
-        <v>5.133671265866724E-13</v>
+        <v>7.08872960331064E-11</v>
       </c>
       <c r="F11">
-        <v>3.184034824371338</v>
+        <v>3.001678943634033</v>
       </c>
       <c r="G11">
         <v>0.9</v>
